--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Fall.112219.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Fall.112219.xlsx_with_dialog_acts.xlsx
@@ -643,12 +643,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1571,12 +1571,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1865,12 +1865,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1907,12 +1907,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2205,12 +2205,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2247,12 +2247,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2289,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2625,12 +2625,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2835,12 +2835,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3049,12 +3049,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3771,12 +3771,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4107,12 +4107,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4275,12 +4275,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4695,12 +4695,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5505,12 +5505,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6135,12 +6135,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6177,12 +6177,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6727,12 +6727,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6979,12 +6979,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7063,12 +7063,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7147,12 +7147,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7231,12 +7231,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7315,12 +7315,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7357,12 +7357,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7911,12 +7911,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9061,12 +9061,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9485,12 +9485,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9657,12 +9657,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9951,12 +9951,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10035,12 +10035,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11517,12 +11517,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11559,12 +11559,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11895,12 +11895,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11979,12 +11979,12 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12403,12 +12403,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12491,12 +12491,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12785,12 +12785,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13415,12 +13415,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13583,12 +13583,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13709,12 +13709,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13919,12 +13919,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14129,12 +14129,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14301,12 +14301,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14511,12 +14511,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14595,12 +14595,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14847,12 +14847,12 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14973,12 +14973,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15225,12 +15225,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15569,12 +15569,12 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15993,12 +15993,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16501,12 +16501,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16585,12 +16585,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16967,12 +16967,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17135,12 +17135,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17685,12 +17685,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17899,12 +17899,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17983,12 +17983,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18751,12 +18751,12 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19299,12 +19299,12 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19783,12 +19783,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19903,12 +19903,12 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20103,12 +20103,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20143,12 +20143,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20263,12 +20263,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20623,12 +20623,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21023,12 +21023,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21383,12 +21383,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21463,12 +21463,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21823,12 +21823,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22063,12 +22063,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22183,12 +22183,12 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22875,12 +22875,12 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23115,12 +23115,12 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23875,12 +23875,12 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24035,12 +24035,12 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25075,12 +25075,12 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25475,12 +25475,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -25675,12 +25675,12 @@
       <c r="H605" t="inlineStr"/>
       <c r="I605" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25879,12 +25879,12 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26639,12 +26639,12 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26919,12 +26919,12 @@
       <c r="H636" t="inlineStr"/>
       <c r="I636" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27439,12 +27439,12 @@
       <c r="H649" t="inlineStr"/>
       <c r="I649" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27523,12 +27523,12 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27847,12 +27847,12 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28051,12 +28051,12 @@
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28091,12 +28091,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28455,12 +28455,12 @@
       <c r="H674" t="inlineStr"/>
       <c r="I674" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28495,12 +28495,12 @@
       <c r="H675" t="inlineStr"/>
       <c r="I675" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28655,12 +28655,12 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28735,12 +28735,12 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29383,12 +29383,12 @@
       <c r="H697" t="inlineStr"/>
       <c r="I697" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29423,12 +29423,12 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29503,12 +29503,12 @@
       <c r="H700" t="inlineStr"/>
       <c r="I700" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29831,12 +29831,12 @@
       <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30119,12 +30119,12 @@
       <c r="H715" t="inlineStr"/>
       <c r="I715" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30439,12 +30439,12 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30479,12 +30479,12 @@
       <c r="H724" t="inlineStr"/>
       <c r="I724" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31283,12 +31283,12 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31971,12 +31971,12 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32055,12 +32055,12 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32095,12 +32095,12 @@
       <c r="H764" t="inlineStr"/>
       <c r="I764" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32335,12 +32335,12 @@
       <c r="H770" t="inlineStr"/>
       <c r="I770" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32375,12 +32375,12 @@
       <c r="H771" t="inlineStr"/>
       <c r="I771" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32455,12 +32455,12 @@
       <c r="H773" t="inlineStr"/>
       <c r="I773" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32655,12 +32655,12 @@
       <c r="H778" t="inlineStr"/>
       <c r="I778" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32779,12 +32779,12 @@
       <c r="H781" t="inlineStr"/>
       <c r="I781" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33267,12 +33267,12 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33347,12 +33347,12 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33507,12 +33507,12 @@
       <c r="H799" t="inlineStr"/>
       <c r="I799" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33627,12 +33627,12 @@
       <c r="H802" t="inlineStr"/>
       <c r="I802" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33787,12 +33787,12 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34071,12 +34071,12 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34471,12 +34471,12 @@
       <c r="H823" t="inlineStr"/>
       <c r="I823" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34671,12 +34671,12 @@
       <c r="H828" t="inlineStr"/>
       <c r="I828" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35355,12 +35355,12 @@
       <c r="H845" t="inlineStr"/>
       <c r="I845" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35555,12 +35555,12 @@
       <c r="H850" t="inlineStr"/>
       <c r="I850" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36963,12 +36963,12 @@
       <c r="H885" t="inlineStr"/>
       <c r="I885" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37123,12 +37123,12 @@
       <c r="H889" t="inlineStr"/>
       <c r="I889" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37407,12 +37407,12 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38247,12 +38247,12 @@
       <c r="H917" t="inlineStr"/>
       <c r="I917" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38727,12 +38727,12 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38767,12 +38767,12 @@
       <c r="H930" t="inlineStr"/>
       <c r="I930" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39251,12 +39251,12 @@
       <c r="H942" t="inlineStr"/>
       <c r="I942" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39371,12 +39371,12 @@
       <c r="H945" t="inlineStr"/>
       <c r="I945" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39411,12 +39411,12 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39615,12 +39615,12 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40135,12 +40135,12 @@
       <c r="H964" t="inlineStr"/>
       <c r="I964" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -40819,12 +40819,12 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40979,12 +40979,12 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J985" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -41139,12 +41139,12 @@
       <c r="H989" t="inlineStr"/>
       <c r="I989" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -41503,12 +41503,12 @@
       <c r="H998" t="inlineStr"/>
       <c r="I998" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J998" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41667,12 +41667,12 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -43035,12 +43035,12 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43235,12 +43235,12 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1041" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -43317,12 +43317,12 @@
       <c r="H1043" t="inlineStr"/>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -43741,12 +43741,12 @@
       <c r="H1053" t="inlineStr"/>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -44035,12 +44035,12 @@
       <c r="H1060" t="inlineStr"/>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1060" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44203,12 +44203,12 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1064" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -44329,12 +44329,12 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44497,12 +44497,12 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44581,12 +44581,12 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1073" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44917,12 +44917,12 @@
       <c r="H1081" t="inlineStr"/>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1081" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -45379,12 +45379,12 @@
       <c r="H1092" t="inlineStr"/>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1092" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45421,12 +45421,12 @@
       <c r="H1093" t="inlineStr"/>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1093" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -45463,12 +45463,12 @@
       <c r="H1094" t="inlineStr"/>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1094" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -45505,12 +45505,12 @@
       <c r="H1095" t="inlineStr"/>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -45547,12 +45547,12 @@
       <c r="H1096" t="inlineStr"/>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1096" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -45715,12 +45715,12 @@
       <c r="H1100" t="inlineStr"/>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -45757,12 +45757,12 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -46639,12 +46639,12 @@
       <c r="H1122" t="inlineStr"/>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1122" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46769,12 +46769,12 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1125" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46811,12 +46811,12 @@
       <c r="H1126" t="inlineStr"/>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1126" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46853,12 +46853,12 @@
       <c r="H1127" t="inlineStr"/>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1127" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -46979,12 +46979,12 @@
       <c r="H1130" t="inlineStr"/>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
